--- a/data/income_statement/2digits/size/35_IS_MICRO.xlsx
+++ b/data/income_statement/2digits/size/35_IS_MICRO.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>35-Electricity, gas, steam and air conditioning supply</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>35-Electricity, gas, steam and air conditioning supply</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,248 +841,283 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>44480.25758</v>
+        <v>59224.45242999999</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>55864.03893</v>
+        <v>73020.76933</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>96322.77806</v>
+        <v>119535.23602</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>124428.01607</v>
+        <v>157227.06091</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>122149.58048</v>
+        <v>159627.35175</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>69919.8606</v>
+        <v>120616.7618</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>109009.21199</v>
+        <v>185675.17247</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>710215.6007300001</v>
+        <v>912711.52087</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>488497.57101</v>
+        <v>931378.83495</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>1113210.29043</v>
+        <v>3255866.850649999</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>1042224.6721</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>3685131.64423</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>3822504.82</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>40439.02752</v>
+        <v>50693.51523</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>51151.60197</v>
+        <v>63975.42419</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>36007.40386</v>
+        <v>53453.46195999999</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>118415.05109</v>
+        <v>143140.54201</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>111147.09419</v>
+        <v>141360.67853</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>60305.257</v>
+        <v>103144.55529</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>101097.95164</v>
+        <v>167599.96877</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>700059.62378</v>
+        <v>890604.7692900001</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>469914.37952</v>
+        <v>892920.99732</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>979234.95048</v>
+        <v>3068164.98195</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>972608.01173</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>3578352.50739</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>3736270.291</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>3080.32303</v>
+        <v>4576.00513</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>3040.98059</v>
+        <v>3771.54271</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>2280.55242</v>
+        <v>2360.13928</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>2329.88238</v>
+        <v>3382.28718</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>8180.024600000001</v>
+        <v>9799.26238</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>1216.63881</v>
+        <v>2707.96947</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>5641.880939999999</v>
+        <v>6470.548870000001</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>4934.471320000001</v>
+        <v>6469.01544</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>9000.77648</v>
+        <v>12945.48581</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>52718.08679</v>
+        <v>68023.29886</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>25436.80179</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>29881.97007</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>22606.323</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>960.9070300000002</v>
+        <v>3954.93207</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>1671.45637</v>
+        <v>5273.802429999999</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>58034.82178000001</v>
+        <v>63721.63478</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>3683.082600000001</v>
+        <v>10704.23172</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>2822.46169</v>
+        <v>8467.41084</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>8397.96479</v>
+        <v>14764.23704</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>2269.37941</v>
+        <v>11604.65483</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>5221.50563</v>
+        <v>15637.73614</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>9582.415010000001</v>
+        <v>25512.35182</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>81257.25316000001</v>
+        <v>119678.56984</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>44179.85858</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>76897.16677000001</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>63628.206</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>145.11866</v>
+        <v>202.24746</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>556.15676</v>
+        <v>775.3580599999999</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>130.07293</v>
+        <v>377.98993</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>7340.30554</v>
+        <v>7641.12575</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>5004.82809</v>
+        <v>6073.22857</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>51.73405</v>
+        <v>493.40372</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>608.06754</v>
+        <v>1714.95111</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>1001.20157</v>
+        <v>16281.78791</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>943.67323</v>
+        <v>1977.46569</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>40043.06704000001</v>
+        <v>55974.33734000001</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>9214.225129999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>63453.5566</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>29544.789</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>131.50071</v>
+        <v>188.62951</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>377.39731</v>
+        <v>540.50853</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>27.6857</v>
+        <v>275.6027</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>232.39707</v>
+        <v>451.99481</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>4553.40781</v>
+        <v>4822.05397</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>30.02344</v>
+        <v>207.44061</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>546.0435699999999</v>
+        <v>1549.53116</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>813.45627</v>
+        <v>15562.86541</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>823.73868</v>
+        <v>1543.50219</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>38642.66480999999</v>
+        <v>53692.79399000001</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>8492.40157</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>60365.16364999999</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>26419.166</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>11.16265</v>
@@ -1193,895 +1129,1010 @@
         <v>21.31313</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>2.01324</v>
+        <v>36.89456</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>5.357279999999999</v>
+        <v>10.25628</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>11.61073</v>
+        <v>16.74573</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>26.38803</v>
+        <v>33.59401</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>9.14672</v>
+        <v>38.43573000000001</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>16.44054</v>
+        <v>167.52431</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>155.69288</v>
+        <v>512.27224</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>80.49075000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>441.64452</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>834.008</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>2.4553</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>175.84051</v>
+        <v>231.93059</v>
       </c>
       <c r="E12" s="48" t="n">
         <v>81.0741</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>7105.89523</v>
+        <v>7152.23638</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>446.063</v>
+        <v>1240.91832</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>10.09988</v>
+        <v>269.21738</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>35.63594000000001</v>
+        <v>131.82594</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>178.59858</v>
+        <v>680.48677</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>103.49401</v>
+        <v>266.43919</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>1244.70935</v>
+        <v>1769.27111</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>641.3328100000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>2646.74843</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>2291.615</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>44335.13892</v>
+        <v>59022.20497</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>55307.88217</v>
+        <v>72245.41127</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>96192.70513</v>
+        <v>119157.24609</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>117087.71053</v>
+        <v>149585.93516</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>117144.75239</v>
+        <v>153554.12318</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>69868.12655</v>
+        <v>120123.35808</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>108401.14445</v>
+        <v>183960.22136</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>709214.3991599999</v>
+        <v>896429.7329600001</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>487553.8977800001</v>
+        <v>929401.3692599999</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>1073167.22339</v>
+        <v>3199892.51331</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>1033010.44697</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>3621678.087629999</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>3792960.031</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>39477.86852999999</v>
+        <v>67462.71090999999</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>47083.15515</v>
+        <v>66694.4372</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>86881.06994</v>
+        <v>99492.00942999999</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>103543.0177</v>
+        <v>133624.14319</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>99477.99032</v>
+        <v>140328.09493</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>55976.20403</v>
+        <v>117852.88235</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>85416.34937000001</v>
+        <v>184610.389</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>674703.39116</v>
+        <v>867187.4615</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>450570.5096</v>
+        <v>909078.07973</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>828424.5529300001</v>
+        <v>2138650.12206</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>701184.0100199999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>2299571.57451</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>2275346.318</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>2113.33634</v>
+        <v>12050.27888</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>18089.42073</v>
+        <v>26786.50865</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>2643.08743</v>
+        <v>5203.83626</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>2003.81573</v>
+        <v>11687.31245</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>2403.59942</v>
+        <v>16006.88712</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>5479.333869999999</v>
+        <v>28361.21862</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>4431.068429999999</v>
+        <v>50860.92582</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>11344.3668</v>
+        <v>108404.81931</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>23033.084</v>
+        <v>177581.01594</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>77036.92716000001</v>
+        <v>544917.16205</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>99124.05362000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>633227.87921</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>610442.507</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>14994.91283</v>
+        <v>15875.17306</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>19514.70517</v>
+        <v>21161.92217</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>16651.71904</v>
+        <v>18296.21647</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>63748.85113</v>
+        <v>68338.13484999999</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>81866.64742000001</v>
+        <v>87232.48245</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>19719.90376</v>
+        <v>29147.7602</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>56877.42962</v>
+        <v>64712.71275</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>603571.3326900001</v>
+        <v>616960.5480399999</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>350002.82361</v>
+        <v>367787.08441</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>399796.9253999999</v>
+        <v>444146.6239000001</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>260970.17004</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>439491.3038</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>433438.82</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>22362.81211</v>
+        <v>39429.84701</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>7444.965689999999</v>
+        <v>16113.33958</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>11391.02337</v>
+        <v>19705.70431</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>37664.6918</v>
+        <v>53237.35318</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>14634.01425</v>
+        <v>34827.29351</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>30509.80791</v>
+        <v>59998.13171</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>23793.67726</v>
+        <v>68381.99026000001</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>57601.4575</v>
+        <v>138825.89031</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>75939.04163000001</v>
+        <v>358083.00142</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>279406.4720499999</v>
+        <v>1068697.6064</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>331265.98791</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1210128.2294</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>1210504.744</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>6.80725</v>
+        <v>107.41196</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>2034.06356</v>
+        <v>2632.6668</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>56195.2401</v>
+        <v>56286.25239</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>125.65904</v>
+        <v>361.34271</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>573.72923</v>
+        <v>2261.43185</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>267.15849</v>
+        <v>345.77182</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>314.17406</v>
+        <v>654.76017</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>2186.23417</v>
+        <v>2996.20384</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>1595.56036</v>
+        <v>5626.97796</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>72184.22832000001</v>
+        <v>80888.72971000001</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>9823.798449999998</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>16724.1621</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>20960.247</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>4857.27039</v>
+        <v>-8440.505939999999</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>8224.72702</v>
+        <v>5550.97407</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>9311.635189999999</v>
+        <v>19665.23666</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>13544.69283</v>
+        <v>15961.79197</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>17666.76207</v>
+        <v>13226.02825</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>13891.92252</v>
+        <v>2270.47573</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>22984.79508</v>
+        <v>-650.1676399999997</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>34511.008</v>
+        <v>29242.27146</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>36983.38818000001</v>
+        <v>20323.28953</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>244742.67046</v>
+        <v>1061242.39125</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>331826.43695</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1322106.51312</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>1517613.713</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>43176.51465</v>
+        <v>118051.76481</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>44310.38288</v>
+        <v>270447.7479</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>76764.69213</v>
+        <v>325058.76591</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>55129.68289</v>
+        <v>364237.15543</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>53879.71987</v>
+        <v>329010.7561</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>79209.89163</v>
+        <v>364414.43402</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>95715.34055999998</v>
+        <v>342510.00624</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>127221.26999</v>
+        <v>463637.36292</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>100739.60299</v>
+        <v>580021.22844</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>233421.8481</v>
+        <v>875568.29926</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>249403.93839</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>957008.88922</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>944918.228</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>971.0802199999999</v>
+        <v>1145.53924</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>414.3934</v>
+        <v>1629.24772</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>319.44937</v>
+        <v>483.0491</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>1872.03971</v>
+        <v>3899.01338</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>2010.65492</v>
+        <v>6737.05691</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>3319.55341</v>
+        <v>7503.96468</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>3694.66447</v>
+        <v>15144.67878</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>7753.929679999999</v>
+        <v>25958.07415</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>1858.41988</v>
+        <v>38898.72837</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>6215.61301</v>
+        <v>10968.97177</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>1676.6693</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>3610.17938</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>4178.203</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>1554.89464</v>
+        <v>21994.7687</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>1615.81899</v>
+        <v>17795.58828</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>1929.09492</v>
+        <v>32567.59711</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>5212.250599999999</v>
+        <v>30358.08415</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>2780.22975</v>
+        <v>4597.60506</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>6090.749449999999</v>
+        <v>10690.35153</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>5772.569850000001</v>
+        <v>10524.04897</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>7658.11226</v>
+        <v>15475.43033</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>3916.55309</v>
+        <v>13944.05641</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>15958.21413</v>
+        <v>54393.96455</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>21338.91695</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>89565.18015</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>79282.311</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>40650.53979</v>
+        <v>94911.45687000001</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>42280.17049</v>
+        <v>251022.9119</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>74516.14783999999</v>
+        <v>292008.1197</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>48045.39258</v>
+        <v>329980.0579</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>49088.83519999999</v>
+        <v>317676.09413</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>69799.58877000002</v>
+        <v>346220.11781</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>86248.10623999999</v>
+        <v>316841.27849</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>111809.22805</v>
+        <v>422203.85844</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>94964.63002</v>
+        <v>527178.44366</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>211248.02096</v>
+        <v>810205.36294</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>226388.35214</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>863833.52969</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>861457.714</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>-38319.24426</v>
+        <v>-126492.27075</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>-36085.65585999999</v>
+        <v>-264896.77383</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>-67453.05693999999</v>
+        <v>-305393.52925</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>-41584.99006</v>
+        <v>-348275.36346</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>-36212.9578</v>
+        <v>-315784.72785</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>-65317.96911000001</v>
+        <v>-362143.95829</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>-72730.54548000002</v>
+        <v>-343160.1738800001</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>-92710.26199000001</v>
+        <v>-434395.09146</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>-63756.21481</v>
+        <v>-559697.9389099999</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>11320.82236</v>
+        <v>185674.09199</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>82422.49856000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>365097.6239000001</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>572695.485</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>14248.06731</v>
+        <v>256713.44736</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>13800.96219</v>
+        <v>346478.15853</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>4954.44527</v>
+        <v>675411.60829</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>6930.194320000001</v>
+        <v>920414.5155399999</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>5033.65742</v>
+        <v>600878.68475</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>7406.63342</v>
+        <v>714294.86738</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>12452.91082</v>
+        <v>1165455.90279</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>19169.24748</v>
+        <v>1268564.03365</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>29040.1968</v>
+        <v>1558780.5109</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>219221.50812</v>
+        <v>4579360.14287</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>110497.96571</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>3025981.54173</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>3012098.111</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>3.64086</v>
+        <v>27532.64046</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>2.39909</v>
+        <v>97949.55682</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>11.53692</v>
+        <v>30044.09149</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>29.69835</v>
+        <v>43350.5995</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>13.87142</v>
+        <v>40159.39178</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>275.09035</v>
+        <v>12483.78403</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>78.976</v>
+        <v>18596.12182</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>197.93795</v>
+        <v>26915.30421</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>47.89785</v>
+        <v>51928.49121</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>3753.17499</v>
+        <v>84107.63978</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>1571.08318</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>190984.63241</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>57655.13</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>1.78845</v>
+        <v>37010.5038</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>8.581950000000001</v>
+        <v>162.66113</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>19.90259</v>
+        <v>2683.78896</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>3.11527</v>
+        <v>94032.69981000001</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>2.41186</v>
+        <v>154491.89404</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>23.54456</v>
+        <v>90840.71451000001</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>0</v>
+        <v>136810.57144</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>0</v>
+        <v>127880.18427</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>0.06209000000000001</v>
+        <v>25516.01902</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>0</v>
+        <v>205819.38401</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>272111.22396</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>261257.156</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>1167.80352</v>
+        <v>42221.35251</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>1462.93836</v>
+        <v>31351.59235</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>988.15562</v>
+        <v>50612.175</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>1607.39902</v>
+        <v>76746.76114999999</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>1293.65351</v>
+        <v>91702.62457000001</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>1651.26972</v>
+        <v>125144.57603</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>3433.50381</v>
+        <v>188069.61963</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>4793.944810000001</v>
+        <v>223064.25878</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>4026.9243</v>
+        <v>231968.74293</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>26930.98442</v>
+        <v>268815.67999</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>20525.57913</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>338592.85318</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>337064.859</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>0.33</v>
+        <v>11.71873</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>0</v>
+        <v>19.06148</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>14.89366</v>
+        <v>15.01226</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>6.20496</v>
+        <v>61.32839</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>0.15117</v>
+        <v>117.08137</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>0.00038</v>
+        <v>160.61863</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>68.19477999999999</v>
+        <v>4190.79739</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>3.30176</v>
+        <v>3.57737</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>20</v>
+        <v>7312.958070000001</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>658.12473</v>
+        <v>93143.51097</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>192.12746</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>7444.65539</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>7685.402</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>129.27544</v>
+        <v>9106.756600000001</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>22.88484</v>
+        <v>15236.17999</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>180.67372</v>
+        <v>117351.28808</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>68.78172000000001</v>
+        <v>15255.16264</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>30.74754</v>
+        <v>15222.24527</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>0</v>
+        <v>15555.57124</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>5.26808</v>
+        <v>17997.03283</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>12.9375</v>
+        <v>40796.45769</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>98.62724</v>
+        <v>18098.85629</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>542.4623800000001</v>
+        <v>16982.53907</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>3133.37481</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>776135.7309200001</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>30451.767</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>125.56106</v>
+        <v>203.2592</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>10.26425</v>
+        <v>516.5760600000001</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>14.00613</v>
+        <v>23812.17109</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>83.94426</v>
+        <v>38274.79113</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>245.72293</v>
+        <v>19176.53503</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>26.55742</v>
+        <v>39378.41876000001</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>19.02369</v>
+        <v>6730.35409</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>144.81644</v>
+        <v>22343.21435</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>70.5295</v>
+        <v>5902.88836</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>557.6663100000001</v>
+        <v>124547.35364</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>560.8130600000001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>47425.10174000001</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>193942.641</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>2280.14319</v>
+        <v>103872.69977</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>2966.46161</v>
+        <v>181318.76252</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>2972.78472</v>
+        <v>411144.05855</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>4556.29729</v>
+        <v>626266.9879600001</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>2471.63103</v>
+        <v>245377.69925</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>4488.843039999999</v>
+        <v>406813.7522</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>7647.01668</v>
+        <v>739968.99277</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>12286.51389</v>
+        <v>778432.02293</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>23099.59488</v>
+        <v>1110596.93998</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>182651.85341</v>
+        <v>3716677.47617</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>66540.14057999999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>1277524.12586</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>2071376.681</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>0</v>
+        <v>10.13454</v>
       </c>
       <c r="D33" s="48" t="n">
         <v>0.22583</v>
       </c>
       <c r="E33" s="48" t="n">
-        <v>0.91859</v>
+        <v>43.57424</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>39.15932</v>
+        <v>298.97884</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>16.36026</v>
+        <v>213.42786</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>0</v>
+        <v>30.74583</v>
       </c>
       <c r="I33" s="48" t="n">
         <v>0</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>33.87905</v>
+        <v>129.46836</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>37.12365</v>
+        <v>371.64025</v>
       </c>
       <c r="L33" s="48" t="n">
-        <v>48.72032</v>
+        <v>4974.54945</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>0.44013</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>15.51332</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
-        <v>2.87254</v>
+        <v>102.76674</v>
       </c>
       <c r="D34" s="48" t="n">
         <v>0</v>
@@ -2099,13 +2150,13 @@
         <v>17.90681</v>
       </c>
       <c r="I34" s="48" t="n">
-        <v>0</v>
+        <v>59.93516</v>
       </c>
       <c r="J34" s="48" t="n">
         <v>0</v>
       </c>
       <c r="K34" s="48" t="n">
-        <v>0.2</v>
+        <v>3.8418</v>
       </c>
       <c r="L34" s="48" t="n">
         <v>0</v>
@@ -2113,248 +2164,283 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0.776</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>10536.65225</v>
+        <v>36641.61501</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>9327.206259999999</v>
+        <v>19923.54235</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>751.5733200000001</v>
+        <v>39705.44862</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>535.59411</v>
+        <v>26127.2061</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>959.1077</v>
+        <v>34417.78558</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>923.42114</v>
+        <v>23868.77934</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>1200.92778</v>
+        <v>53032.47766</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>1695.91608</v>
+        <v>48999.54569000001</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>1639.23729</v>
+        <v>107080.13299</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>4078.52156</v>
+        <v>64292.00979</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>17974.40736</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>115747.70495</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>52663.699</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>3570.08026</v>
+        <v>122147.40268</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>2937.41179</v>
+        <v>189492.51521</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>9991.487580000001</v>
+        <v>1174501.54365</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>4629.14062</v>
+        <v>384038.89962</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>11491.6291</v>
+        <v>975142.00524</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>7419.786539999999</v>
+        <v>565607.8024200001</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>25924.93372</v>
+        <v>976948.7773899999</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>31116.70631</v>
+        <v>1224813.34198</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>33197.6454</v>
+        <v>1530093.67561</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>1055216.69589</v>
+        <v>6493211.624229999</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>171335.93073</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>2363354.6637</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>3613458.012</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>9.470030000000001</v>
+        <v>28.50769</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>8.56349</v>
+        <v>120.70896</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>33.94327</v>
+        <v>103.7431</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>67.06028000000001</v>
+        <v>178.90344</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>192.15535</v>
+        <v>271.28457</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>4.80022</v>
+        <v>221.66398</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>35.16764</v>
+        <v>3585.95569</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>39.99063</v>
+        <v>871.25114</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>1266.06709</v>
+        <v>8545.95111</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>1902.53493</v>
+        <v>18446.7204</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>2267.95741</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>13927.38278</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>15785.748</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>299.44104</v>
+        <v>3542.1095</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>53.67286</v>
+        <v>2040.54299</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>98.35908999999999</v>
+        <v>2834.52346</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>164.85426</v>
+        <v>2091.55943</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>88.7627</v>
+        <v>2565.87993</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>0</v>
+        <v>2221.81204</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>8.474209999999999</v>
+        <v>2527.01886</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>701.34434</v>
+        <v>2832.76819</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>42.09341000000001</v>
+        <v>5945.81649</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>757696.7222899999</v>
+        <v>763617.59383</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>678.6607700000001</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>12374.04629</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>3616.355</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>25.0935</v>
+        <v>38.47531000000001</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>7.40617</v>
+        <v>24.57593</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>0.28929</v>
+        <v>874.6442500000001</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>49.66208</v>
+        <v>65.05930000000001</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>0</v>
+        <v>686.44957</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>62.17321</v>
+        <v>2152.92027</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>0.01454</v>
+        <v>2662.57183</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>0</v>
+        <v>420.10217</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>28.96423</v>
+        <v>6294.62227</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>6299.99049</v>
+        <v>7754.60465</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>51.21448</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>17394.24693</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>1298.782</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>2460.23554</v>
+        <v>98908.85506</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>2596.59064</v>
+        <v>181872.40293</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>8793.558710000001</v>
+        <v>1137509.01676</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>2900.06734</v>
+        <v>333619.2999500001</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>10008.36827</v>
+        <v>933146.0262999999</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>6275.51942</v>
+        <v>504122.26813</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>21694.13166</v>
+        <v>867817.6425999999</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>23632.84763</v>
+        <v>1111470.0977</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>28323.21015</v>
+        <v>1384993.16456</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>281471.15788</v>
+        <v>5569628.75158</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>140405.12176</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>2235797.414129999</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>3480120.588</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>0.05946</v>
+        <v>0.5742200000000001</v>
       </c>
       <c r="D41" s="48" t="n">
         <v>0</v>
@@ -2363,37 +2449,42 @@
         <v>0</v>
       </c>
       <c r="F41" s="48" t="n">
-        <v>0</v>
+        <v>878.74708</v>
       </c>
       <c r="G41" s="48" t="n">
         <v>34.98322</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>0</v>
+        <v>17.59982</v>
       </c>
       <c r="I41" s="48" t="n">
         <v>2.06023</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>0</v>
+        <v>641.6349</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>10.74082</v>
+        <v>966.85468</v>
       </c>
       <c r="L41" s="48" t="n">
-        <v>3.43914</v>
+        <v>15376.64126</v>
       </c>
       <c r="M41" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>215.918</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
-        <v>0</v>
+        <v>216.84628</v>
       </c>
       <c r="D42" s="48" t="n">
         <v>0</v>
@@ -2411,7 +2502,7 @@
         <v>0</v>
       </c>
       <c r="I42" s="48" t="n">
-        <v>0</v>
+        <v>3e-05</v>
       </c>
       <c r="J42" s="48" t="n">
         <v>0</v>
@@ -2425,593 +2516,671 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>775.7806899999999</v>
+        <v>19412.03462</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>271.17863</v>
+        <v>5434.2844</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>1065.33722</v>
+        <v>33179.61608</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>1447.49666</v>
+        <v>47205.33042</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>1167.35956</v>
+        <v>38437.38165</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>1077.29369</v>
+        <v>56871.53818</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>4185.08544</v>
+        <v>100353.52815</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>6742.52371</v>
+        <v>108577.48788</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>3526.5697</v>
+        <v>123347.2665</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>7842.851159999999</v>
+        <v>118387.31251</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>27932.97631</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>83861.57356999999</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>112420.591</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>2963.9947</v>
+        <v>131497.2516</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>3081.47735</v>
+        <v>180498.81063</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>4949.29163</v>
+        <v>473740.55814</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>4613.665349999999</v>
+        <v>360227.08304</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>3449.51761</v>
+        <v>320962.10406</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>4395.455140000001</v>
+        <v>334396.3604600001</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>6107.9035</v>
+        <v>227005.64658</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>6105.358220000001</v>
+        <v>457883.79086</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>17684.86614</v>
+        <v>678434.4331600001</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>140005.40622</v>
+        <v>2211975.601569999</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>96595.61900999999</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>1833511.00421</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>2554794.355</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>2953.42675</v>
+        <v>41111.44788</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>2455.70349</v>
+        <v>77457.85175</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>4713.15697</v>
+        <v>230544.95502</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>4474.323289999999</v>
+        <v>207023.19909</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>3299.45163</v>
+        <v>133216.70582</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>4188.58621</v>
+        <v>240820.91301</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>5922.710980000001</v>
+        <v>178539.68109</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>5570.412520000001</v>
+        <v>321794.52123</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>16627.71209</v>
+        <v>413223.70149</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>123807.8731</v>
+        <v>1457043.81243</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>88961.62023999999</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>1310468.8905</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>2183764.381</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>10.56795</v>
+        <v>90385.80372</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>625.77386</v>
+        <v>103040.95888</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>236.13466</v>
+        <v>243195.60312</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>139.34206</v>
+        <v>153203.88395</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>150.06598</v>
+        <v>187745.39824</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>206.86893</v>
+        <v>93575.44745000001</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>185.19252</v>
+        <v>48465.96549</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>534.9457</v>
+        <v>136089.26963</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>1057.15405</v>
+        <v>265210.73167</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>16197.53312</v>
+        <v>754931.7891400001</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>7633.998769999999</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>523042.1137100001</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>371029.974</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>-30605.25191</v>
+        <v>-123423.47767</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>-28303.58281</v>
+        <v>-288409.94114</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>-77439.39087999999</v>
+        <v>-1278224.02275</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>-43897.60171</v>
+        <v>-172126.83058</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>-46120.44708999999</v>
+        <v>-1011010.1524</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>-69726.57737</v>
+        <v>-547853.25379</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>-92310.47188</v>
+        <v>-381658.69506</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-110763.07904</v>
+        <v>-848528.1906500001</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>-85598.52954999999</v>
+        <v>-1209445.53678</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-964679.77163</v>
+        <v>-3940152.990939999</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>-75011.08547000001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>-805786.5022800001</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>-2583458.771</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>1467.32855</v>
+        <v>19186.26586</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>1128.82733</v>
+        <v>47335.56501</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>2403.41425</v>
+        <v>383290.16092</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>2799.07354</v>
+        <v>40547.83465</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>1064.68856</v>
+        <v>27487.09915</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>987.5302100000001</v>
+        <v>72609.25021</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>2975.44714</v>
+        <v>138039.01434</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>5051.50992</v>
+        <v>64232.96118999999</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>5965.74474</v>
+        <v>82938.85647</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>12283.50102</v>
+        <v>354554.0509</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>40539.52567</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>259603.23673</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>153711.44</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>0.41973</v>
+        <v>7748.33701</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>38.77021</v>
+        <v>68.4062</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>4.23188</v>
+        <v>616.63276</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>27.61013</v>
+        <v>996.8908699999999</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>25.44883</v>
+        <v>651.9884499999999</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>19.49124</v>
+        <v>4799.01337</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>13.6877</v>
+        <v>2109.31134</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>73.90405</v>
+        <v>2687.67963</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>55.90014</v>
+        <v>1768.75082</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>15.60268</v>
+        <v>1542.89784</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>109.15204</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>17302.23605</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>1687.999</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>1466.90882</v>
+        <v>11437.92885</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>1090.05712</v>
+        <v>47267.15881</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>2399.18237</v>
+        <v>382673.52816</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>2771.46341</v>
+        <v>39550.94378</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>1039.23973</v>
+        <v>26835.1107</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>968.0389700000001</v>
+        <v>67810.23683999998</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>2961.75944</v>
+        <v>135929.703</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>4977.60587</v>
+        <v>61545.28156</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>5909.8446</v>
+        <v>81170.10565000001</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>12267.89834</v>
+        <v>353011.15306</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>40430.37362999999</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>242301.00068</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>152023.441</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>2204.63235</v>
+        <v>30043.13064</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>3020.88038</v>
+        <v>59768.43525</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>17992.04326</v>
+        <v>79499.82251</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>2292.10427</v>
+        <v>20901.09208</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>8010.46924</v>
+        <v>45558.49233</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>9375.53026</v>
+        <v>63255.11833</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>6925.10505</v>
+        <v>86483.26490000001</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>29556.27828</v>
+        <v>343892.64335</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>18795.68971</v>
+        <v>191610.80834</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>61197.88916</v>
+        <v>386936.62494</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>28862.07031</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>330849.91503</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>282532.944</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>121.64619</v>
+        <v>5065.937</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>144.75016</v>
+        <v>5996.37675</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>89.41132</v>
+        <v>3458.69557</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>43.47557</v>
+        <v>2105.26757</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>411.71915</v>
+        <v>14630.73458</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>4.77052</v>
+        <v>6686.39059</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>5.99599</v>
+        <v>12583.466</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>623.7822600000001</v>
+        <v>16082.75036</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>123.5644</v>
+        <v>51533.194</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>2143.11709</v>
+        <v>19327.9276</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>242.86114</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>53212.62464</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>26331.06</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>235.28292</v>
+        <v>8640.226949999998</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>144.58156</v>
+        <v>8431.140530000001</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>166.32497</v>
+        <v>18315.27359</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>557.7926499999999</v>
+        <v>1992.05102</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>164.87745</v>
+        <v>3991.76914</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>241.03171</v>
+        <v>1773.96077</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>807.6605299999999</v>
+        <v>18122.04399</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>462.079</v>
+        <v>8547.519630000001</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>578.86105</v>
+        <v>1913.86592</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>2328.2482</v>
+        <v>18398.13763</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>541.62671</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>3639.7988</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>3575.594</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>1847.70324</v>
+        <v>16336.96669</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>2731.54866</v>
+        <v>45340.91797</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>17736.30697</v>
+        <v>57725.85335</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>1690.83605</v>
+        <v>16803.77349</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>7433.87264</v>
+        <v>26935.98861</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>9129.72803</v>
+        <v>54794.76697</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>6111.448530000001</v>
+        <v>55777.75491</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>28470.41702</v>
+        <v>319262.37336</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>18093.26426</v>
+        <v>138163.74842</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>56726.52387</v>
+        <v>349210.5597100001</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>28077.58246000001</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>273997.49159</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>252626.29</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>-31342.55571</v>
+        <v>-134280.34245</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>-30195.63586</v>
+        <v>-300842.81138</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-93028.01989</v>
+        <v>-974433.68434</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>-43390.63244</v>
+        <v>-152480.08801</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>-53066.22777</v>
+        <v>-1029081.54558</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-78114.57742</v>
+        <v>-538499.1219100001</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-96260.12978999999</v>
+        <v>-330102.94562</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-135267.8474</v>
+        <v>-1128187.87281</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>-98428.47451999997</v>
+        <v>-1318117.48865</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-1013594.15977</v>
+        <v>-3972535.56498</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>-63333.63011</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>-877033.1805799999</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>-2712280.275</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>273.67173</v>
+        <v>4093.51702</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>427.37439</v>
+        <v>4074.86382</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>423.85926</v>
+        <v>8002.59058</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>360.81548</v>
+        <v>7274.765469999999</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>550.4816500000001</v>
+        <v>17145.73264</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>738.37389</v>
+        <v>9634.178290000002</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>1180.60546</v>
+        <v>21906.02962</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>1529.99205</v>
+        <v>19009.72343</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>1889.67149</v>
+        <v>29852.77714</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>10516.54563</v>
+        <v>79568.13718999999</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>13087.44185</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>64014.16853</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>88977.38099999999</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>-31616.22744</v>
+        <v>-138373.85947</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>-30623.01025</v>
+        <v>-304917.6752</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-93451.87914999999</v>
+        <v>-982436.2749200001</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>-43751.44792</v>
+        <v>-159754.85348</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-53616.70942</v>
+        <v>-1046227.27822</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-78852.95131</v>
+        <v>-548133.3001999999</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-97440.73525</v>
+        <v>-352008.9752399999</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-136797.83945</v>
+        <v>-1147197.59624</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>-100318.14601</v>
+        <v>-1347970.26579</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-1024110.7054</v>
+        <v>-4052103.70217</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>-76421.07195999999</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>-941047.3491100001</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>-2801257.656</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>1128</v>
+        <v>1391</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>1309</v>
+        <v>1647</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>1445</v>
+        <v>1857</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>1617</v>
+        <v>2123</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>2309</v>
+        <v>2993</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>3753</v>
+        <v>4549</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>6359</v>
+        <v>7650</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>6649</v>
+        <v>8502</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>5143</v>
+        <v>7927</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>4930</v>
+        <v>7569</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>4229</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>6893</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>6365</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>